--- a/2.Excel/hands-on/6.Funcoes_Mercado/10.CORRESP/1.CORRESP.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/10.CORRESP/1.CORRESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\10.CORRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA445CE-35F9-43A1-85C7-AB29CE53E411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998DD7B-85D7-408D-9039-9E50BC241B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="120" windowWidth="10800" windowHeight="12792" activeTab="1" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="12240" yWindow="120" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="2" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRESP" sheetId="2" r:id="rId1"/>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E71EB1-CED9-4CD0-84CB-E786CB6D5CED}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3477,7 +3477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02D153-4518-406C-B717-C8680DD429E8}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3788,60 +3790,60 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C16" s="6">
         <f>VLOOKUP($B16,$B$3:$H$13,MATCH(C$15,$B$2:$H$2,0),0)</f>
-        <v>136909</v>
+        <v>230870</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" ref="D16:H17" si="0">VLOOKUP($B16,$B$3:$H$13,MATCH(D$15,$B$2:$H$2,0),0)</f>
-        <v>827119</v>
+        <v>578927</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>804873</v>
+        <v>56435</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>701521</v>
+        <v>486895</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>533749</v>
+        <v>251105</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>570184</v>
+        <v>903436</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C17" s="6">
         <f>VLOOKUP($B17,$B$3:$H$13,MATCH(C$15,$B$2:$H$2,0),0)</f>
-        <v>339849</v>
+        <v>136909</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>142492</v>
+        <v>827119</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>488286</v>
+        <v>804873</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>520411</v>
+        <v>701521</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>349757</v>
+        <v>533749</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>726040</v>
+        <v>570184</v>
       </c>
     </row>
   </sheetData>

--- a/2.Excel/hands-on/6.Funcoes_Mercado/10.CORRESP/1.CORRESP.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/10.CORRESP/1.CORRESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\10.CORRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998DD7B-85D7-408D-9039-9E50BC241B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE3DCB-2FA8-4DB1-A71C-4FC0DAA71D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="120" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="2" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="12240" yWindow="120" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="3" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRESP" sheetId="2" r:id="rId1"/>
@@ -3477,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02D153-4518-406C-B717-C8680DD429E8}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3860,7 +3860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14320F23-E21A-4F4C-B9C0-5DAADE102FA6}">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3903,7 +3905,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3920,8 +3922,8 @@
         <v>3</v>
       </c>
       <c r="G3" s="9" t="str" cm="1">
-        <f t="array" ref="G3">INDEX(A2:A16,G2)</f>
-        <v>Produto 5</v>
+        <f t="array" ref="G3">INDEX(B2:B16,G2)</f>
+        <v>H8237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/2.Excel/hands-on/6.Funcoes_Mercado/10.CORRESP/1.CORRESP.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/10.CORRESP/1.CORRESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\10.CORRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE3DCB-2FA8-4DB1-A71C-4FC0DAA71D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635438CD-9011-4885-ACB5-D726025E6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="120" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="3" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="12240" yWindow="120" windowWidth="10800" windowHeight="12792" firstSheet="3" activeTab="4" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRESP" sheetId="2" r:id="rId1"/>
@@ -3860,7 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14320F23-E21A-4F4C-B9C0-5DAADE102FA6}">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -5256,7 +5256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58476F61-E96E-445D-B26A-359D96FCABAF}">
   <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5284,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5342,15 +5344,15 @@
       </c>
       <c r="G4" s="4">
         <f>MATCH($G$1,$B$2:$B$16,0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="str" cm="1">
-        <f t="array" ref="H4">INDEX($A$2:$A$16,G4)</f>
-        <v>Produto 5</v>
+        <f t="array" ref="H4">INDEX(A2:A16,G4)</f>
+        <v>Produto 2</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>INDEX(A:A,MATCH($G$1,B:B,0))</f>
-        <v>Produto 5</v>
+        <f>INDEX(A2:A16,MATCH(G1,B2:B16,0))</f>
+        <v>Produto 2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5371,15 +5373,15 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G6" si="0">MATCH($G$1,$B$2:$B$16,0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5" cm="1">
-        <f t="array" ref="H5">INDEX($C$2:$C$16,G5)</f>
-        <v>6228</v>
+        <f t="array" ref="H5">INDEX(C2:C16,G5)</f>
+        <v>7918</v>
       </c>
       <c r="I5" s="5">
-        <f>INDEX(C:C,MATCH($G$1,B:B,0))</f>
-        <v>6228</v>
+        <f>INDEX(C2:C16,MATCH(G1,B2:B16,0))</f>
+        <v>7918</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5400,15 +5402,15 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="str" cm="1">
-        <f t="array" ref="H6">INDEX($D$2:$D$16,G6)</f>
-        <v>Alpha</v>
+        <f t="array" ref="H6">INDEX(D2:D16,G6)</f>
+        <v>Beta</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>INDEX(D:D,MATCH($G$1,B:B,0))</f>
-        <v>Alpha</v>
+        <f>INDEX(D:D,MATCH(G1,B:B,0))</f>
+        <v>Beta</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
